--- a/biology/Zoologie/Bombyx_du_chêne/Bombyx_du_chêne.xlsx
+++ b/biology/Zoologie/Bombyx_du_chêne/Bombyx_du_chêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasiocampa quercus
 Le Bombyx du chêne ou Minime à bandes jaunes (Lasiocampa quercus) est une espèce de lépidoptères (papillons) appartenant à la famille des Lasiocampidae, à la sous-famille des Lasiocampinae et au genre Lasiocampa.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure : de 5 jusqu'à près de 8 cm chez la femelle ; dimorphisme sexuel prononcé : les mâles sont toujours plus foncés que les femelles et leur abdomen est étroit. Beaucoup de variations (polymorphisme) peuvent être dues aux conditions locales du milieu.
 Chenilles : éclosent en septembre et passent l'hiver en diapause ; elles en sortent en mars et se nymphosent autour de mai-juin. Elles muent plusieurs fois avant et après la diapause, changeant notablement d'apparence.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 de l’Europe aux monts Altaï, partout en France métropolitaine.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol : le papillon vole de juin à septembre en une seule génération, le mâle est actif le jour, à partir de 14 heures environ, surtout vers 16/17 heures[1], son vol est rapide et zigzagant ; la femelle vole seulement la nuit, souvent après avoir été fécondée (les mâles sont vivement attirés par les phéromones qu'elle émet).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Période de vol : le papillon vole de juin à septembre en une seule génération, le mâle est actif le jour, à partir de 14 heures environ, surtout vers 16/17 heures, son vol est rapide et zigzagant ; la femelle vole seulement la nuit, souvent après avoir été fécondée (les mâles sont vivement attirés par les phéromones qu'elle émet).</t>
         </is>
       </c>
     </row>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La chenille est polyphage : elle consomme les feuilles et jeunes pousses de nombreuses espèces d'arbres fruitiers et des forêts (dont des chênes), de nombreux arbustes.</t>
         </is>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bombyx_du_ch%C3%AAne</t>
+          <t>Bombyx_du_chêne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,11 +668,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena quercus[2].
-Synonymie
-Phalaena quercus Linné, 1758 Protonyme
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena quercus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bombyx_du_chêne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phalaena quercus Linné, 1758 Protonyme
 Lasiocampa roboris Schrank, 1801
 Lasiocampa spartii Hübner, 1803
 Lasiocampa guillemotii Trimoulet, 1858
@@ -666,9 +723,43 @@
 Lasiocampa meridionalis Tutt, 1901
 Lasiocampa agsutilinea Valle, 1930
 Lasiocampa montana Bergmann, 1953
-Lasiocampa scopolii Carnelutti &amp; Michieli, 1960
-Noms vernaculaires
-Bombyx du chêne
+Lasiocampa scopolii Carnelutti &amp; Michieli, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bombyx_du_chêne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bombyx du chêne
 Minime à bandes jaunes</t>
         </is>
       </c>
